--- a/testdata/test_result.xlsx
+++ b/testdata/test_result.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
-    <t>2018-05-15 14:49:53</t>
+    <t>2018-05-15 14:56:00</t>
   </si>
   <si>
     <t>100002018030401001</t>
@@ -59,6 +59,9 @@
     <t>540102016040500493</t>
   </si>
   <si>
+    <t>2018-05-15 14:56:01</t>
+  </si>
+  <si>
     <t>100002017120104580</t>
   </si>
   <si>
@@ -77,9 +80,6 @@
     <t>300002017111702704</t>
   </si>
   <si>
-    <t>2018-05-15 14:49:54</t>
-  </si>
-  <si>
     <t>000002017092903572</t>
   </si>
   <si>
@@ -125,6 +125,9 @@
     <t>660002017051600434</t>
   </si>
   <si>
+    <t>2018-05-15 14:56:02</t>
+  </si>
+  <si>
     <t>660002017111602607</t>
   </si>
   <si>
@@ -141,9 +144,6 @@
   </si>
   <si>
     <t>620502016040401628</t>
-  </si>
-  <si>
-    <t>2018-05-15 14:49:55</t>
   </si>
   <si>
     <t>522702016031001226</t>
@@ -639,10 +639,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -672,10 +672,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -903,10 +903,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -925,10 +925,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
         <v>44</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
         <v>45</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>

--- a/testdata/test_result.xlsx
+++ b/testdata/test_result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="test_result" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test_result" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,15 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
-    <t>2018-05-22 14:50:20</t>
+    <t>2018-05-25 11:30:51</t>
   </si>
   <si>
     <t>http://221.236.20.217:8093/pcl/services/loanCenter/account/queryPaymentHistory</t>
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -359,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:C2"/>
+  <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -367,7 +370,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -376,6 +379,42 @@
       </c>
       <c r="C2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/test_result.xlsx
+++ b/testdata/test_result.xlsx
@@ -15,18 +15,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
-  <si>
-    <t>2018-05-25 11:30:51</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>exception</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>2018-06-28 17:39:34</t>
   </si>
   <si>
     <t>http://221.236.20.217:8093/pcl/services/loanCenter/account/queryPaymentHistory</t>
   </si>
   <si>
+    <t>"code":"0000"</t>
+  </si>
+  <si>
+    <t>{"data":{"loanNo":"000002017090601542","repaidAmt":636,"repaidDetail":[{"dealId":"03120128","dealName":"²ÌÂ¬Ãô","isCredited":"000001","netpayId":"dg","transAmt":536,"transTime":"2017-10-27 22:40:05"},{"dealId":"etl","dealName":"etl","isCredited":"000001","netpayId":"bf_act_pay","transAmt":100,"transTime":"2017-09-15 17:41:56"}],"repaidNum":"2","repaidSumNum":"2"},"meta":{"code":"0000","message":"»¹¿î¼ÇÂ¼²éÑ¯½Ó¿Úµ÷ÓÃ³É¹¦"}}</t>
+  </si>
+  <si>
     <t>pass</t>
   </si>
   <si>
     <t>fail</t>
+  </si>
+  <si>
+    <t>"code":"0001"</t>
+  </si>
+  <si>
+    <t>{"data":{},"meta":{"code":"1001","message":"´û¿î±àºÅ²»ÄÜÎª¿Õ"}}</t>
+  </si>
+  <si>
+    <t>http://221.236.20.217:8093/pcl/services/loanCenter/account/queryIsExitsDk</t>
+  </si>
+  <si>
+    <t>{"data":{"dkMsg":"¸ÃÌõ´û¿î¿ÉÒÔ½øÐÐÊµÊ±¿Û¿î²Ù×÷","dkStatu":true},"meta":{"code":"0000","message":"¼ì²éÊÇ·ñ¿ÉÒÔ´ú¿Û½Ó¿Úµ÷ÓÃ³É¹¦"}}</t>
   </si>
 </sst>
 </file>
@@ -362,7 +395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D5"/>
+  <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -370,7 +403,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -380,40 +413,134 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="n">
         <v>1</v>
       </c>
     </row>
